--- a/data/trans_dic/P6-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha experimentado cambio de convivientes en sus viviendas</t>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>10,11%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 11,28</t>
+          <t>0,0; 9,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 38,41</t>
+          <t>0,0; 13,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 18,84</t>
+          <t>0,0; 14,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 16,38</t>
+          <t>0,0; 13,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,38</t>
+          <t>1,79; 15,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 12,31</t>
+          <t>3,96; 22,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 14,31</t>
+          <t>5,9; 25,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 17,52</t>
+          <t>7,55; 28,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,25</t>
+          <t>0,97; 10,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 24,64</t>
+          <t>3,0; 14,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 14,31</t>
+          <t>4,21; 16,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 14,57</t>
+          <t>5,18; 17,91</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>19,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 9,65</t>
+          <t>3,04; 11,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 12,38</t>
+          <t>4,92; 14,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 16,05</t>
+          <t>7,79; 20,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 20,26</t>
+          <t>11,65; 26,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,33</t>
+          <t>5,99; 14,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,18</t>
+          <t>7,1; 16,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 23,38</t>
+          <t>13,26; 24,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 26,09</t>
+          <t>15,37; 27,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,03</t>
+          <t>5,36; 11,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,06</t>
+          <t>6,88; 13,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,53; 18,3</t>
+          <t>12,04; 20,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 22,01</t>
+          <t>15,09; 24,8</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 14,01</t>
+          <t>3,67; 13,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 15,57</t>
+          <t>4,02; 13,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 22,06</t>
+          <t>8,06; 20,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 25,95</t>
+          <t>11,07; 25,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,63</t>
+          <t>4,67; 13,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 15,93</t>
+          <t>5,03; 14,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,63; 21,04</t>
+          <t>9,42; 20,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,75; 26,03</t>
+          <t>15,25; 28,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,83</t>
+          <t>5,21; 11,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,31</t>
+          <t>5,58; 11,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 20,2</t>
+          <t>10,3; 18,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 24,69</t>
+          <t>15,08; 24,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 15,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 13,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 22,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 9,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 13,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 19,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 9,24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 11,21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 16,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,14; 20,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 11,59</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 13,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,44; 19,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 24,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 9,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,03; 11,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 16,84</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 20,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5403</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4607</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6845</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14443</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15474</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19307</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8839</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19846</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20179</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23914</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9498</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17583</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14777</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15373</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2105; 18789</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5647; 31909</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6810; 29150</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9239; 35339</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2144; 22227</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8140; 39036</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9301; 36187</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12242; 42364</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22862</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37642</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48194</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70665</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37788</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>51018</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69971</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>77903</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60650</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>88660</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>118164</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>148568</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11112; 41260</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21150; 61372</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29320; 75719</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46549; 106901</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23396; 57598</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>32998; 75794</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>50520; 93747</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57660; 103553</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>40560; 87245</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>61536; 121900</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>91138; 157704</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>116911; 192135</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20930</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26102</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37432</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47043</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30444</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>37927</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49529</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>69239</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51373</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>64029</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>86961</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>116282</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10488; 38454</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13377; 46038</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22773; 57852</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30479; 69816</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16787; 49745</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21528; 60490</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32454; 69934</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49942; 92844</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33628; 74265</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42450; 89875</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>64558; 113610</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>90891; 148134</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45785</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>69147</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90330</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>122314</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>75077</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>103388</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>134974</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>166449</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>120862</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>172535</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>225304</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>288764</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>28982; 69779</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44977; 99938</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>61397; 124043</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>87930; 164651</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>51481; 100573</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>73999; 139350</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>104649; 167170</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>135391; 204067</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>93526; 156341</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>135348; 217198</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>186346; 270335</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>236305; 338489</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>